--- a/biology/Zoologie/Eupanacra_automedon/Eupanacra_automedon.xlsx
+++ b/biology/Zoologie/Eupanacra_automedon/Eupanacra_automedon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupanacra automedon est une espèce de lépidoptères de la famille des Sphingidae, sous-famille des Macroglossinae, tribu des Macroglossini, sous-tribu des Macroglossina et du genre Eupanacra.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Imago
 L'espèce est très semblable à Eupanacra malayana mais s'en distingue par la marge externe de l'aile antérieure qui une pointe pointue unique au sommet et également une ombre longitudinale brune plus foncée. La face dorsale de l'aile antérieure a des lignes postmedian plus rapprochées et plus longitudinales que pour Eupanacra malayana, elles sont pratiquement parallèle au costa.
@@ -546,7 +560,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L’espèce est connue au nord-est de l'Inde, au Népal, Birmanie, Thaïlande, en Malaisie péninsulaire, Sumatra, Nias, Java et Bornéo.</t>
@@ -577,9 +593,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chenilles se nourrissent sur les espèces du genre Lasia[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles se nourrissent sur les espèces du genre Lasia.
 </t>
         </is>
       </c>
@@ -608,11 +626,47 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Eupanacra automedon a été décrite par l'entomologiste Francis Walker en 1856, sous le nom initial de Panacra automedon[2].
-Synonymie
-Panacra automedon Walker, 1856
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Eupanacra automedon a été décrite par l'entomologiste Francis Walker en 1856, sous le nom initial de Panacra automedon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eupanacra_automedon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupanacra_automedon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Panacra automedon Walker, 1856
 Panacra truncata Walker, 1856
 Panacra niasana Clark, 1923
 Panacra kualalumpuri Clark, 1935</t>
